--- a/Assets/StreamingAssets/Excel/hello.xlsx
+++ b/Assets/StreamingAssets/Excel/hello.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870AAD3-5B63-4A93-A516-9D6F271FFB50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771030D5-91EB-4CCE-B2DE-59716E069DBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -379,6 +379,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BEC50E-3FF5-4745-B496-AA172E3B2A02}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>334</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>455</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -409,77 +482,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BEC50E-3FF5-4745-B496-AA172E3B2A02}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>334</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>455</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Assets/StreamingAssets/Excel/hello.xlsx
+++ b/Assets/StreamingAssets/Excel/hello.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771030D5-91EB-4CCE-B2DE-59716E069DBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D41BA2-9CFC-4B48-BFC3-71A1F78B8FE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,15 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>乱世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>注释</t>
   </si>
@@ -390,30 +381,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,13 +412,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -435,46 +426,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
